--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1102"/>
+  <dimension ref="A1:I1103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40358,6 +40358,41 @@
         <v>850000</v>
       </c>
     </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1103" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1103" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1103" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>354100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1103"/>
+  <dimension ref="A1:I1104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40393,6 +40393,43 @@
         <v>354100</v>
       </c>
     </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1104" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1104" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1104" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1104"/>
+  <dimension ref="A1:I1105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40430,6 +40430,41 @@
         </is>
       </c>
     </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1105" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1105" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>81000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1105"/>
+  <dimension ref="A1:I1106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40465,6 +40465,43 @@
         <v>81000</v>
       </c>
     </row>
+    <row r="1106">
+      <c r="A1106" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1106" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1106" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1106" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1106"/>
+  <dimension ref="A1:I1107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40502,6 +40502,41 @@
         </is>
       </c>
     </row>
+    <row r="1107">
+      <c r="A1107" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1107" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1107" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1107" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1107"/>
+  <dimension ref="A1:I1108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40537,6 +40537,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1108">
+      <c r="A1108" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1108" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1108" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1108" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1108" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>37000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1108"/>
+  <dimension ref="A1:I1109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40572,6 +40572,43 @@
         <v>37000</v>
       </c>
     </row>
+    <row r="1109">
+      <c r="A1109" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1109" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1109" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1109" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1109" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1109"/>
+  <dimension ref="A1:I1110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40609,6 +40609,41 @@
         </is>
       </c>
     </row>
+    <row r="1110">
+      <c r="A1110" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1110" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1110" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1110" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1110" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1110"/>
+  <dimension ref="A1:I1111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40644,6 +40644,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1111">
+      <c r="A1111" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1111" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1111" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1111" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1111"/>
+  <dimension ref="A1:I1112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40681,6 +40681,41 @@
         </is>
       </c>
     </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1112" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1112" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1112" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1112"/>
+  <dimension ref="A1:I1113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40716,6 +40716,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1113" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1113" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1113" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1113"/>
+  <dimension ref="A1:I1114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40751,6 +40751,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1114" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1114" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1114" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1114"/>
+  <dimension ref="A1:I1116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40788,6 +40788,76 @@
         </is>
       </c>
     </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1115" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1115" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1115" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>37300</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1116" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1116" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1116" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1116"/>
+  <dimension ref="A1:I1118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40858,6 +40858,80 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1117" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1117" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1117" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1118" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1118" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1118" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1118" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1118"/>
+  <dimension ref="A1:I1119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40932,6 +40932,43 @@
         </is>
       </c>
     </row>
+    <row r="1119">
+      <c r="A1119" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1119" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1119" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1119" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1119"/>
+  <dimension ref="A1:I1120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40969,6 +40969,43 @@
         </is>
       </c>
     </row>
+    <row r="1120">
+      <c r="A1120" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1120" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1120" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1120" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1120"/>
+  <dimension ref="A1:I1121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41006,6 +41006,43 @@
         </is>
       </c>
     </row>
+    <row r="1121">
+      <c r="A1121" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1121" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1121" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1121" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1121" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1121"/>
+  <dimension ref="A1:I1122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41043,6 +41043,43 @@
         </is>
       </c>
     </row>
+    <row r="1122">
+      <c r="A1122" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1122" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1122" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1122" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1122" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1122"/>
+  <dimension ref="A1:I1124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41080,6 +41080,78 @@
         </is>
       </c>
     </row>
+    <row r="1123">
+      <c r="A1123" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1123" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1123" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1123" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1123" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1124" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1124" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1124" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1124" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>43000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1124"/>
+  <dimension ref="A1:I1125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41152,6 +41152,41 @@
         <v>43000</v>
       </c>
     </row>
+    <row r="1125">
+      <c r="A1125" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1125" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1125" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1125" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1125" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>410000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1125"/>
+  <dimension ref="A1:I1126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41187,6 +41187,43 @@
         <v>410000</v>
       </c>
     </row>
+    <row r="1126">
+      <c r="A1126" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1126" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1755"/>
+  <dimension ref="A1:I1756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63239,6 +63239,41 @@
         </is>
       </c>
     </row>
+    <row r="1756">
+      <c r="A1756" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1756" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1756" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>300000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1756"/>
+  <dimension ref="A1:I1757"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63274,6 +63274,41 @@
         <v>300000</v>
       </c>
     </row>
+    <row r="1757">
+      <c r="A1757" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1757" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1757" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>204000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1757"/>
+  <dimension ref="A1:I1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63309,6 +63309,41 @@
         <v>204000</v>
       </c>
     </row>
+    <row r="1758">
+      <c r="A1758" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1758" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>205000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1758"/>
+  <dimension ref="A1:I1759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63344,6 +63344,43 @@
         <v>205000</v>
       </c>
     </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1759" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1759" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1759" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1759"/>
+  <dimension ref="A1:I1760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63381,6 +63381,41 @@
         </is>
       </c>
     </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1760" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1760" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>127500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1760"/>
+  <dimension ref="A1:I1761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63416,6 +63416,43 @@
         <v>127500</v>
       </c>
     </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1761" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1761" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1761" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1761"/>
+  <dimension ref="A1:I1762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63453,6 +63453,43 @@
         </is>
       </c>
     </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1762" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1762" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1762" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1762"/>
+  <dimension ref="A1:I1763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63490,6 +63490,41 @@
         </is>
       </c>
     </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1763" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1763" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>158000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1763"/>
+  <dimension ref="A1:I1764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63525,6 +63525,41 @@
         <v>158000</v>
       </c>
     </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1764" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1764" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>115000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1764"/>
+  <dimension ref="A1:I1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63560,6 +63560,43 @@
         <v>115000</v>
       </c>
     </row>
+    <row r="1765">
+      <c r="A1765" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1765" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1765" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1765" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1765"/>
+  <dimension ref="A1:I1766"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63597,6 +63597,43 @@
         </is>
       </c>
     </row>
+    <row r="1766">
+      <c r="A1766" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1766" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1766" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1766" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1766"/>
+  <dimension ref="A1:I1767"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63634,6 +63634,43 @@
         </is>
       </c>
     </row>
+    <row r="1767">
+      <c r="A1767" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1767" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1767" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1767"/>
+  <dimension ref="A1:I1768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63671,6 +63671,43 @@
         </is>
       </c>
     </row>
+    <row r="1768">
+      <c r="A1768" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1768" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1768" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9377.xlsx
+++ b/data/9377.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1768"/>
+  <dimension ref="A1:I1769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63708,6 +63708,43 @@
         </is>
       </c>
     </row>
+    <row r="1769">
+      <c r="A1769" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="D1769" t="inlineStr">
+        <is>
+          <t>FSBM</t>
+        </is>
+      </c>
+      <c r="E1769" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1769" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
